--- a/Excel/excel/xls/J技能信息.xlsx
+++ b/Excel/excel/xls/J技能信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="14805" windowHeight="8070" activeTab="1"/>
@@ -169,12 +169,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -216,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +543,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,13 +630,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F4">
         <v>30000</v>

--- a/Excel/excel/xls/J技能信息.xlsx
+++ b/Excel/excel/xls/J技能信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14805" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="14805" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="1" r:id="rId1"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>效果CD时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +106,14 @@
   </si>
   <si>
     <t>冲锋持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,18 +483,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -519,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -561,39 +561,39 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -616,10 +616,10 @@
         <v>15000</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -642,10 +642,10 @@
         <v>30000</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/J技能信息.xlsx
+++ b/Excel/excel/xls/J技能信息.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14805" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14805" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,7 +254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F3">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F4">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>

--- a/Excel/excel/xls/J技能信息.xlsx
+++ b/Excel/excel/xls/J技能信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="14805" windowHeight="8085" activeTab="1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,7 +254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -613,7 +613,7 @@
         <v>5000</v>
       </c>
       <c r="F3">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F4">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>

--- a/Excel/excel/xls/J技能信息.xlsx
+++ b/Excel/excel/xls/J技能信息.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="F4">
         <v>30000</v>

--- a/Excel/excel/xls/J技能信息.xlsx
+++ b/Excel/excel/xls/J技能信息.xlsx
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="F4">
         <v>30000</v>

--- a/Excel/excel/xls/J技能信息.xlsx
+++ b/Excel/excel/xls/J技能信息.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="F4">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>

--- a/Excel/excel/xls/J技能信息.xlsx
+++ b/Excel/excel/xls/J技能信息.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="F4">
         <v>40000</v>
